--- a/analysis/stats/ISEA_use-wear_STA-stats.xlsx
+++ b/analysis/stats/ISEA_use-wear_STA-stats.xlsx
@@ -1454,7 +1454,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Coarser</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2114,7 +2114,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Coarser</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2774,7 +2774,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Finer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3434,7 +3434,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Finer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -8949,7 +8949,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Coarser</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -9614,7 +9614,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Coarser</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -10279,7 +10279,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Coarser</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -10944,7 +10944,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Coarser</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -11609,7 +11609,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Finer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -12274,7 +12274,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Finer</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -12939,7 +12939,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Finer</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -13604,7 +13604,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Finer</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
